--- a/src/test/resources/testData/ScheduleTestingTests.xlsx
+++ b/src/test/resources/testData/ScheduleTestingTests.xlsx
@@ -115,7 +115,7 @@
     <t>1234</t>
   </si>
   <si>
-    <t>lauren_july83@yopmail.com</t>
+    <t>lauren1200@yopmail.com</t>
   </si>
   <si>
     <t>Qwerty123@</t>
@@ -160,10 +160,10 @@
     <t>November 2018</t>
   </si>
   <si>
-    <t>23</t>
+    <t>27</t>
   </si>
   <si>
-    <t>9:00 AM</t>
+    <t>1:00 PM</t>
   </si>
 </sst>
 </file>
@@ -241,9 +241,6 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
@@ -264,6 +261,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -446,193 +446,193 @@
       <c r="E2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="U2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="V2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="W2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="X2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Y2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="Z2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AA2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AB2" s="13" t="s">
+      <c r="AB2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="AC2" s="14" t="s">
+      <c r="AC2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="AD2" s="13" t="s">
+      <c r="AD2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="AE2" s="13" t="s">
+      <c r="AE2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="15"/>
-      <c r="AH2" s="15"/>
-      <c r="AI2" s="15"/>
-      <c r="AJ2" s="15"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="14"/>
     </row>
     <row r="3">
-      <c r="A3" s="8">
+      <c r="A3" s="15">
         <v>2.0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="15">
         <v>1234.0</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="15">
         <v>3.0</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="R3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="S3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="T3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="U3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="V3" s="8" t="s">
+      <c r="V3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="W3" s="8" t="s">
+      <c r="W3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="X3" s="8" t="s">
+      <c r="X3" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="Y3" s="8" t="s">
+      <c r="Y3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="Z3" s="8">
+      <c r="Z3" s="15">
         <v>1.0</v>
       </c>
-      <c r="AA3" s="8">
+      <c r="AA3" s="15">
         <v>23.0</v>
       </c>
-      <c r="AB3" s="8" t="s">
+      <c r="AB3" s="15" t="s">
         <v>43</v>
       </c>
       <c r="AC3" s="16">
         <v>43405.0</v>
       </c>
-      <c r="AD3" s="8">
-        <v>21.0</v>
+      <c r="AD3" s="15">
+        <v>26.0</v>
       </c>
       <c r="AE3" s="17">
         <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -641,82 +641,82 @@
       <c r="E4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="P4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="R4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="S4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="T4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="U4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="V4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="W4" s="9" t="s">
+      <c r="W4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="X4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="Y4" s="9" t="s">
+      <c r="Y4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="Z4" s="9" t="s">
+      <c r="Z4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AA4" s="9" t="s">
+      <c r="AA4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AB4" s="9" t="s">
+      <c r="AB4" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AC4" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="AD4" s="9" t="s">
+      <c r="AD4" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AE4" s="9" t="s">
+      <c r="AE4" s="8" t="s">
         <v>50</v>
       </c>
     </row>

--- a/src/test/resources/testData/ScheduleTestingTests.xlsx
+++ b/src/test/resources/testData/ScheduleTestingTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F127D3-B369-1541-915C-81121DEAE2B9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1A0FC6-B51F-3841-B031-C83855283ED3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,7 +169,7 @@
     <t>6</t>
   </si>
   <si>
-    <t>lauren.weiniger.19847@yopmail.com</t>
+    <t>lauren.weiniger.19848@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -631,7 +631,7 @@
   <dimension ref="A1:AH998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/src/test/resources/testData/ScheduleTestingTests.xlsx
+++ b/src/test/resources/testData/ScheduleTestingTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1A0FC6-B51F-3841-B031-C83855283ED3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F721AB7-0CFE-5A45-A73A-4B8131E00B3E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="51">
   <si>
     <t>S.NO.</t>
   </si>
@@ -166,10 +166,13 @@
     <t>nA</t>
   </si>
   <si>
-    <t>6</t>
+    <t>lauren.weiniger.19849@yopmail.com</t>
   </si>
   <si>
-    <t>lauren.weiniger.19848@yopmail.com</t>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
 </sst>
 </file>
@@ -630,8 +633,8 @@
   </sheetPr>
   <dimension ref="A1:AH998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AB4" sqref="AB4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -765,7 +768,7 @@
         <v>25</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>26</v>
@@ -859,7 +862,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>26</v>
@@ -931,7 +934,7 @@
         <v>37</v>
       </c>
       <c r="AB3" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AC3" s="8" t="s">
         <v>40</v>
@@ -953,7 +956,7 @@
         <v>25</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>26</v>
@@ -1025,7 +1028,7 @@
         <v>37</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC4" s="5" t="s">
         <v>42</v>
@@ -1042,7 +1045,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>26</v>

--- a/src/test/resources/testData/ScheduleTestingTests.xlsx
+++ b/src/test/resources/testData/ScheduleTestingTests.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F721AB7-0CFE-5A45-A73A-4B8131E00B3E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD33113A-DBA6-8541-A4FB-D9FDDF87F4D7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="50">
   <si>
     <t>S.NO.</t>
   </si>
@@ -166,13 +166,10 @@
     <t>nA</t>
   </si>
   <si>
-    <t>lauren.weiniger.19849@yopmail.com</t>
+    <t>14</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
+    <t>lauren.weiniger.19850@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -633,7 +630,7 @@
   </sheetPr>
   <dimension ref="A1:AH998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
       <selection activeCell="AB4" sqref="AB4"/>
     </sheetView>
   </sheetViews>
@@ -768,7 +765,7 @@
         <v>25</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>26</v>
@@ -862,7 +859,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>26</v>
@@ -934,7 +931,7 @@
         <v>37</v>
       </c>
       <c r="AB3" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AC3" s="8" t="s">
         <v>40</v>
@@ -956,7 +953,7 @@
         <v>25</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>26</v>
@@ -1028,7 +1025,7 @@
         <v>37</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AC4" s="5" t="s">
         <v>42</v>
@@ -1045,7 +1042,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>26</v>

--- a/src/test/resources/testData/ScheduleTestingTests.xlsx
+++ b/src/test/resources/testData/ScheduleTestingTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD33113A-DBA6-8541-A4FB-D9FDDF87F4D7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAD2619-2A49-CA47-B3A6-70B77DD877E2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,7 +169,7 @@
     <t>14</t>
   </si>
   <si>
-    <t>lauren.weiniger.19850@yopmail.com</t>
+    <t>lauren.weiniger.19851@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -630,8 +630,8 @@
   </sheetPr>
   <dimension ref="A1:AH998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AB4" sqref="AB4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/src/test/resources/testData/ScheduleTestingTests.xlsx
+++ b/src/test/resources/testData/ScheduleTestingTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAD2619-2A49-CA47-B3A6-70B77DD877E2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326D9A78-01CD-6E43-AA26-7E4968A6161D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/src/test/resources/testData/ScheduleTestingTests.xlsx
+++ b/src/test/resources/testData/ScheduleTestingTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326D9A78-01CD-6E43-AA26-7E4968A6161D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AB6A87-78BB-074E-8F41-6F2C9F4376F7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,7 +169,7 @@
     <t>14</t>
   </si>
   <si>
-    <t>lauren.weiniger.19851@yopmail.com</t>
+    <t>lauren.weiniger.19852@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -631,7 +631,7 @@
   <dimension ref="A1:AH998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/src/test/resources/testData/ScheduleTestingTests.xlsx
+++ b/src/test/resources/testData/ScheduleTestingTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AB6A87-78BB-074E-8F41-6F2C9F4376F7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B903B3C1-B17A-9241-9AA2-B5C6610A81EC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,7 +169,7 @@
     <t>14</t>
   </si>
   <si>
-    <t>lauren.weiniger.19852@yopmail.com</t>
+    <t>lauren.weiniger.19853@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -631,7 +631,7 @@
   <dimension ref="A1:AH998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/src/test/resources/testData/ScheduleTestingTests.xlsx
+++ b/src/test/resources/testData/ScheduleTestingTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B903B3C1-B17A-9241-9AA2-B5C6610A81EC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1AF911-2E0B-D941-826E-2D05D95EC0BE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="51">
   <si>
     <t>S.NO.</t>
   </si>
@@ -166,10 +166,13 @@
     <t>nA</t>
   </si>
   <si>
-    <t>14</t>
+    <t>lauren.weiniger.19854@yopmail.com</t>
   </si>
   <si>
-    <t>lauren.weiniger.19853@yopmail.com</t>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
   </si>
 </sst>
 </file>
@@ -630,8 +633,8 @@
   </sheetPr>
   <dimension ref="A1:AH998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -765,7 +768,7 @@
         <v>25</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>26</v>
@@ -859,7 +862,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>26</v>
@@ -931,7 +934,7 @@
         <v>37</v>
       </c>
       <c r="AB3" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AC3" s="8" t="s">
         <v>40</v>
@@ -953,7 +956,7 @@
         <v>25</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>26</v>
@@ -1025,7 +1028,7 @@
         <v>37</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC4" s="5" t="s">
         <v>42</v>
@@ -1042,7 +1045,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>26</v>

--- a/src/test/resources/testData/ScheduleTestingTests.xlsx
+++ b/src/test/resources/testData/ScheduleTestingTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1AF911-2E0B-D941-826E-2D05D95EC0BE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B99988-03BE-CC45-8E3A-990D24B601EF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -166,13 +166,13 @@
     <t>nA</t>
   </si>
   <si>
-    <t>lauren.weiniger.19854@yopmail.com</t>
-  </si>
-  <si>
     <t>17</t>
   </si>
   <si>
     <t>18</t>
+  </si>
+  <si>
+    <t>lauren.weiniger.19855@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -633,8 +633,8 @@
   </sheetPr>
   <dimension ref="A1:AH998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AB5" sqref="AB5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -768,7 +768,7 @@
         <v>25</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>26</v>
@@ -862,7 +862,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>26</v>
@@ -934,7 +934,7 @@
         <v>37</v>
       </c>
       <c r="AB3" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AC3" s="8" t="s">
         <v>40</v>
@@ -956,7 +956,7 @@
         <v>25</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>26</v>
@@ -1028,7 +1028,7 @@
         <v>37</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AC4" s="5" t="s">
         <v>42</v>
@@ -1045,7 +1045,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>26</v>

--- a/src/test/resources/testData/ScheduleTestingTests.xlsx
+++ b/src/test/resources/testData/ScheduleTestingTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B99988-03BE-CC45-8E3A-990D24B601EF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BC1FAE-D400-EE49-B94D-E7D28E64F565}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -172,7 +172,7 @@
     <t>18</t>
   </si>
   <si>
-    <t>lauren.weiniger.19855@yopmail.com</t>
+    <t>lauren.weiniger.19856@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -634,7 +634,7 @@
   <dimension ref="A1:AH998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/src/test/resources/testData/ScheduleTestingTests.xlsx
+++ b/src/test/resources/testData/ScheduleTestingTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BC1FAE-D400-EE49-B94D-E7D28E64F565}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0EC59C-8A18-DF44-B81E-66EE9D1A1A3D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -172,7 +172,7 @@
     <t>18</t>
   </si>
   <si>
-    <t>lauren.weiniger.19856@yopmail.com</t>
+    <t>lauren.weiniger.19857@yopmail.com</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testData/ScheduleTestingTests.xlsx
+++ b/src/test/resources/testData/ScheduleTestingTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0EC59C-8A18-DF44-B81E-66EE9D1A1A3D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A717CEB-C9AE-A541-A3B0-F1191FED7901}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -166,13 +166,13 @@
     <t>nA</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>18</t>
   </si>
   <si>
-    <t>lauren.weiniger.19857@yopmail.com</t>
+    <t>lauren.weiniger.19858@yopmail.com</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
 </sst>
 </file>
@@ -633,8 +633,8 @@
   </sheetPr>
   <dimension ref="A1:AH998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -768,7 +768,7 @@
         <v>25</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>26</v>
@@ -862,7 +862,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>26</v>
@@ -956,7 +956,7 @@
         <v>25</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>26</v>
@@ -1028,7 +1028,7 @@
         <v>37</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC4" s="5" t="s">
         <v>42</v>
@@ -1045,7 +1045,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>26</v>

--- a/src/test/resources/testData/ScheduleTestingTests.xlsx
+++ b/src/test/resources/testData/ScheduleTestingTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A717CEB-C9AE-A541-A3B0-F1191FED7901}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11A41DD-DFC0-184A-8AD6-6D18DD80AF1B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="50">
   <si>
     <t>S.NO.</t>
   </si>
@@ -142,13 +142,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>8:00 AM</t>
-  </si>
-  <si>
     <t>15</t>
-  </si>
-  <si>
-    <t>8:30 AM</t>
   </si>
   <si>
     <t>STATE</t>
@@ -169,10 +163,13 @@
     <t>18</t>
   </si>
   <si>
-    <t>lauren.weiniger.19858@yopmail.com</t>
+    <t>1:00 PM</t>
   </si>
   <si>
-    <t>19</t>
+    <t>1:30 PM</t>
+  </si>
+  <si>
+    <t>lauren.weiniger.19859@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -633,8 +630,8 @@
   </sheetPr>
   <dimension ref="A1:AH998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AB5" sqref="AB5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -695,7 +692,7 @@
         <v>33</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L1" s="10" t="s">
         <v>6</v>
@@ -925,7 +922,7 @@
         <v>38</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Z3" s="8" t="s">
         <v>30</v>
@@ -934,10 +931,10 @@
         <v>37</v>
       </c>
       <c r="AB3" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC3" s="8" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AD3" s="4"/>
       <c r="AE3" s="4"/>
@@ -980,7 +977,7 @@
         <v>30</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>29</v>
@@ -1028,15 +1025,15 @@
         <v>37</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>32</v>
@@ -1054,7 +1051,7 @@
         <v>27</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>28</v>
@@ -1069,25 +1066,25 @@
         <v>30</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S5" s="5" t="s">
         <v>29</v>
@@ -1117,7 +1114,7 @@
         <v>29</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AC5" s="5" t="s">
         <v>29</v>

--- a/src/test/resources/testData/ScheduleTestingTests.xlsx
+++ b/src/test/resources/testData/ScheduleTestingTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11A41DD-DFC0-184A-8AD6-6D18DD80AF1B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4EC7E3-7AF2-0B47-AA85-EC25FEEA8514}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,7 +169,7 @@
     <t>1:30 PM</t>
   </si>
   <si>
-    <t>lauren.weiniger.19859@yopmail.com</t>
+    <t>lauren.weiniger.19860@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -631,7 +631,7 @@
   <dimension ref="A1:AH998"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/src/test/resources/testData/ScheduleTestingTests.xlsx
+++ b/src/test/resources/testData/ScheduleTestingTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4EC7E3-7AF2-0B47-AA85-EC25FEEA8514}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A3F7B2-BB06-0943-BAB9-94DD90D7366E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="51">
   <si>
     <t>S.NO.</t>
   </si>
@@ -163,13 +163,16 @@
     <t>18</t>
   </si>
   <si>
-    <t>1:00 PM</t>
+    <t>19</t>
   </si>
   <si>
-    <t>1:30 PM</t>
+    <t>2:00 PM</t>
   </si>
   <si>
-    <t>lauren.weiniger.19860@yopmail.com</t>
+    <t>8:30 AM</t>
+  </si>
+  <si>
+    <t>lauren.weiniger.19861@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -630,8 +633,8 @@
   </sheetPr>
   <dimension ref="A1:AH998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -765,7 +768,7 @@
         <v>25</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>26</v>
@@ -859,7 +862,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>26</v>
@@ -934,7 +937,7 @@
         <v>46</v>
       </c>
       <c r="AC3" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD3" s="4"/>
       <c r="AE3" s="4"/>
@@ -953,7 +956,7 @@
         <v>25</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>26</v>
@@ -1025,10 +1028,10 @@
         <v>37</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1042,7 +1045,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>26</v>
@@ -31936,6 +31939,7 @@
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" xr:uid="{434A80E9-CA4F-AC43-A00E-F213AD9424AC}"/>
     <hyperlink ref="E5" r:id="rId2" xr:uid="{968D8C58-D437-624F-99CA-8EC590EBF652}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{7035E6DC-487A-2C4F-B0D1-AEFF305B5E85}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/testData/ScheduleTestingTests.xlsx
+++ b/src/test/resources/testData/ScheduleTestingTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A3F7B2-BB06-0943-BAB9-94DD90D7366E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC3A56E-8CA0-DA4D-8571-ED18DEAAD079}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -172,7 +172,7 @@
     <t>8:30 AM</t>
   </si>
   <si>
-    <t>lauren.weiniger.19861@yopmail.com</t>
+    <t>lauren.weiniger.19862@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -634,7 +634,7 @@
   <dimension ref="A1:AH998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -31939,7 +31939,6 @@
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" xr:uid="{434A80E9-CA4F-AC43-A00E-F213AD9424AC}"/>
     <hyperlink ref="E5" r:id="rId2" xr:uid="{968D8C58-D437-624F-99CA-8EC590EBF652}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{7035E6DC-487A-2C4F-B0D1-AEFF305B5E85}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/testData/ScheduleTestingTests.xlsx
+++ b/src/test/resources/testData/ScheduleTestingTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC3A56E-8CA0-DA4D-8571-ED18DEAAD079}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CFDBB7-F9A0-6C4C-9FFE-FC38B65D609A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -172,7 +172,7 @@
     <t>8:30 AM</t>
   </si>
   <si>
-    <t>lauren.weiniger.19862@yopmail.com</t>
+    <t>lauren.weiniger.19863@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -634,7 +634,7 @@
   <dimension ref="A1:AH998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/src/test/resources/testData/ScheduleTestingTests.xlsx
+++ b/src/test/resources/testData/ScheduleTestingTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CFDBB7-F9A0-6C4C-9FFE-FC38B65D609A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CBA06D-A140-1743-ABC7-FB894954A8EF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="50">
   <si>
     <t>S.NO.</t>
   </si>
@@ -160,19 +160,16 @@
     <t>nA</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>2:00 PM</t>
-  </si>
-  <si>
     <t>8:30 AM</t>
   </si>
   <si>
     <t>lauren.weiniger.19863@yopmail.com</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
   </si>
 </sst>
 </file>
@@ -633,8 +630,8 @@
   </sheetPr>
   <dimension ref="A1:AH998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -768,7 +765,7 @@
         <v>25</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>26</v>
@@ -862,7 +859,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>26</v>
@@ -934,10 +931,10 @@
         <v>37</v>
       </c>
       <c r="AB3" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AC3" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AD3" s="4"/>
       <c r="AE3" s="4"/>
@@ -956,7 +953,7 @@
         <v>25</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>26</v>
@@ -1028,10 +1025,10 @@
         <v>37</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1045,7 +1042,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>26</v>

--- a/src/test/resources/testData/ScheduleTestingTests.xlsx
+++ b/src/test/resources/testData/ScheduleTestingTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CBA06D-A140-1743-ABC7-FB894954A8EF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731BCBD8-9FC3-C94C-B7EB-6F6EDF411C9D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,13 +163,13 @@
     <t>8:30 AM</t>
   </si>
   <si>
-    <t>lauren.weiniger.19863@yopmail.com</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
-    <t>21</t>
+    <t>8:45 AM</t>
+  </si>
+  <si>
+    <t>lauren.weiniger.19864@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -630,8 +630,8 @@
   </sheetPr>
   <dimension ref="A1:AH998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AC5" sqref="AC5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -765,7 +765,7 @@
         <v>25</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>26</v>
@@ -859,7 +859,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>26</v>
@@ -931,7 +931,7 @@
         <v>37</v>
       </c>
       <c r="AB3" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AC3" s="8" t="s">
         <v>46</v>
@@ -953,7 +953,7 @@
         <v>25</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>26</v>
@@ -1025,10 +1025,10 @@
         <v>37</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1042,7 +1042,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>26</v>
@@ -1114,7 +1114,7 @@
         <v>29</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="AC5" s="5" t="s">
         <v>29</v>

--- a/src/test/resources/testData/ScheduleTestingTests.xlsx
+++ b/src/test/resources/testData/ScheduleTestingTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731BCBD8-9FC3-C94C-B7EB-6F6EDF411C9D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899A22B1-004C-A04B-9CF8-6059DD017C56}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,13 +163,13 @@
     <t>8:30 AM</t>
   </si>
   <si>
-    <t>20</t>
+    <t>lauren.weiniger.19865@yopmail.com</t>
   </si>
   <si>
-    <t>8:45 AM</t>
+    <t>21</t>
   </si>
   <si>
-    <t>lauren.weiniger.19864@yopmail.com</t>
+    <t>8:00 AM</t>
   </si>
 </sst>
 </file>
@@ -630,8 +630,8 @@
   </sheetPr>
   <dimension ref="A1:AH998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -765,7 +765,7 @@
         <v>25</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>26</v>
@@ -859,7 +859,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>26</v>
@@ -931,10 +931,10 @@
         <v>37</v>
       </c>
       <c r="AB3" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AC3" s="8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AD3" s="4"/>
       <c r="AE3" s="4"/>
@@ -953,7 +953,7 @@
         <v>25</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>26</v>
@@ -1025,10 +1025,10 @@
         <v>37</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1042,7 +1042,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>26</v>

--- a/src/test/resources/testData/ScheduleTestingTests.xlsx
+++ b/src/test/resources/testData/ScheduleTestingTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899A22B1-004C-A04B-9CF8-6059DD017C56}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD50BC2E-6CF5-FB41-9ED4-E387E7F2D565}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,13 +163,13 @@
     <t>8:30 AM</t>
   </si>
   <si>
-    <t>lauren.weiniger.19865@yopmail.com</t>
-  </si>
-  <si>
     <t>21</t>
   </si>
   <si>
     <t>8:00 AM</t>
+  </si>
+  <si>
+    <t>lauren.weiniger.19866@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -186,30 +186,36 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF3933FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -630,8 +636,8 @@
   </sheetPr>
   <dimension ref="A1:AH998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AC5" sqref="AC5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -765,7 +771,7 @@
         <v>25</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>26</v>
@@ -859,7 +865,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>26</v>
@@ -931,10 +937,10 @@
         <v>37</v>
       </c>
       <c r="AB3" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AC3" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AD3" s="4"/>
       <c r="AE3" s="4"/>
@@ -953,7 +959,7 @@
         <v>25</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>26</v>
@@ -1025,7 +1031,7 @@
         <v>37</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AC4" s="5" t="s">
         <v>46</v>
@@ -1042,7 +1048,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>26</v>

--- a/src/test/resources/testData/ScheduleTestingTests.xlsx
+++ b/src/test/resources/testData/ScheduleTestingTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD50BC2E-6CF5-FB41-9ED4-E387E7F2D565}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BA8CEE-4305-AF4B-9662-F023CEB6BA5E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="49">
   <si>
     <t>S.NO.</t>
   </si>
@@ -133,9 +133,6 @@
     <t>RESCHEDULE</t>
   </si>
   <si>
-    <t>December 2018</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -163,13 +160,13 @@
     <t>8:30 AM</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
     <t>8:00 AM</t>
   </si>
   <si>
-    <t>lauren.weiniger.19866@yopmail.com</t>
+    <t>lauren.weiniger.19867@yopmail.com</t>
+  </si>
+  <si>
+    <t>January 2019</t>
   </si>
 </sst>
 </file>
@@ -637,7 +634,7 @@
   <dimension ref="A1:AH998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -698,7 +695,7 @@
         <v>33</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L1" s="10" t="s">
         <v>6</v>
@@ -771,7 +768,7 @@
         <v>25</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>26</v>
@@ -789,13 +786,13 @@
         <v>28</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K2" s="14" t="s">
         <v>30</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>29</v>
@@ -831,7 +828,7 @@
         <v>29</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>29</v>
@@ -856,7 +853,7 @@
     </row>
     <row r="3" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>32</v>
@@ -865,7 +862,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>26</v>
@@ -892,19 +889,19 @@
         <v>24</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>24</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R3" s="5" t="s">
         <v>29</v>
@@ -913,7 +910,7 @@
         <v>29</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U3" s="5" t="s">
         <v>29</v>
@@ -922,25 +919,25 @@
         <v>29</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z3" s="8" t="s">
         <v>30</v>
       </c>
       <c r="AA3" s="13" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="AB3" s="8" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="AC3" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AD3" s="4"/>
       <c r="AE3" s="4"/>
@@ -950,7 +947,7 @@
     </row>
     <row r="4" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>32</v>
@@ -959,7 +956,7 @@
         <v>25</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>26</v>
@@ -983,7 +980,7 @@
         <v>30</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>29</v>
@@ -1028,18 +1025,18 @@
         <v>30</v>
       </c>
       <c r="AA4" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>32</v>
@@ -1048,7 +1045,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>26</v>
@@ -1057,7 +1054,7 @@
         <v>27</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>28</v>
@@ -1072,25 +1069,25 @@
         <v>30</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S5" s="5" t="s">
         <v>29</v>

--- a/src/test/resources/testData/ScheduleTestingTests.xlsx
+++ b/src/test/resources/testData/ScheduleTestingTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BA8CEE-4305-AF4B-9662-F023CEB6BA5E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835C206A-B134-054C-B97B-9556FC6602FA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -633,7 +633,7 @@
   </sheetPr>
   <dimension ref="A1:AH998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
       <selection activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
@@ -934,7 +934,7 @@
         <v>48</v>
       </c>
       <c r="AB3" s="8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AC3" s="8" t="s">
         <v>46</v>
@@ -1028,7 +1028,7 @@
         <v>48</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AC4" s="5" t="s">
         <v>45</v>
